--- a/Excel-XLSX/UN-FSM.xlsx
+++ b/Excel-XLSX/UN-FSM.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>pacLD1</t>
+    <t>KYq76X</t>
   </si>
   <si>
     <t>2015</t>
@@ -117,7 +117,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>null</t>
+    <t>-</t>
   </si>
   <si>
     <t>2</t>
@@ -663,8 +663,8 @@
       <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>31</v>
+      <c r="V2" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -731,8 +731,8 @@
       <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>31</v>
+      <c r="V3" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -799,8 +799,8 @@
       <c r="U4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>31</v>
+      <c r="V4" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-FSM.xlsx
+++ b/Excel-XLSX/UN-FSM.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>KYq76X</t>
+    <t>vWS9x9</t>
   </si>
   <si>
     <t>2015</t>
@@ -663,8 +663,8 @@
       <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>33</v>
+      <c r="V2" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -731,8 +731,8 @@
       <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>33</v>
+      <c r="V3" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -799,8 +799,8 @@
       <c r="U4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>33</v>
+      <c r="V4" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-FSM.xlsx
+++ b/Excel-XLSX/UN-FSM.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>vWS9x9</t>
+    <t>uI3oN8</t>
   </si>
   <si>
     <t>2015</t>
